--- a/python/kor.xlsx
+++ b/python/kor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lujun/Dev/Python/translate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lujun/Dev/Java/BeTranslate/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value_col_B_row_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value_col_B_row_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>value_col_C_row_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_col_B_row_1qqqqq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -561,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -572,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
